--- a/templates/reference_data.xlsx
+++ b/templates/reference_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlou\Desktop\billing automation\ltbap\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BBB7C2-1536-4113-AA79-4D54CA0C317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0D05D7-DC09-4E1A-AF66-035D77D25E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>COMPOSTELA</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>5G LOGISTICS</t>
+  </si>
+  <si>
+    <t>KEYWORDS</t>
+  </si>
+  <si>
+    <t>Jentec liloan</t>
+  </si>
+  <si>
+    <t>JSI</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BIG BLUE COLD STORAGE</t>
+  </si>
+  <si>
+    <t>BB5</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA47AD57-3290-441B-87DC-53D50574E1F8}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,9 +462,10 @@
     <col min="7" max="7" width="30.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -471,8 +490,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -494,8 +516,11 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -517,8 +542,11 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -531,8 +559,11 @@
       <c r="I4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -545,22 +576,28 @@
       <c r="I5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>22</v>
       </c>
@@ -574,7 +611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>22</v>
       </c>
@@ -588,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>22</v>
       </c>
@@ -602,7 +639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -616,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>22</v>
       </c>
